--- a/00.기획서/221108_스테이지3 기획서_미완성.xlsx
+++ b/00.기획서/221108_스테이지3 기획서_미완성.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효진\OneDrive\바탕 화면\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C43C37-DCD1-46F9-B95D-4954881239A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="2790" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="9600" yWindow="2790" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. 목차" sheetId="9" r:id="rId1"/>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KGA_23</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -574,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -741,7 +742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -898,7 +899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1046,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1290,7 +1291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1534,7 +1535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1634,7 +1635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1744,7 +1745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1903,7 +1904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -2175,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0" shapeId="0">
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -2294,7 +2295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -2423,7 +2424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R5" authorId="0" shapeId="0">
+    <comment ref="R5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
       <text>
         <r>
           <rPr>
@@ -2582,7 +2583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="0" shapeId="0">
+    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000011000000}">
       <text>
         <r>
           <rPr>
@@ -2845,7 +2846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0" shapeId="0">
+    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000012000000}">
       <text>
         <r>
           <rPr>
@@ -2964,7 +2965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="0" shapeId="0">
+    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000013000000}">
       <text>
         <r>
           <rPr>
@@ -3093,7 +3094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="0" shapeId="0">
+    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000014000000}">
       <text>
         <r>
           <rPr>
@@ -3252,7 +3253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5" authorId="0" shapeId="0">
+    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000015000000}">
       <text>
         <r>
           <rPr>
@@ -3477,7 +3478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X5" authorId="0" shapeId="0">
+    <comment ref="X5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000016000000}">
       <text>
         <r>
           <rPr>
@@ -3730,7 +3731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y5" authorId="0" shapeId="0">
+    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000017000000}">
       <text>
         <r>
           <rPr>
@@ -3983,7 +3984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z5" authorId="0" shapeId="0">
+    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000018000000}">
       <text>
         <r>
           <rPr>
@@ -4265,7 +4266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC5" authorId="0" shapeId="0">
+    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000019000000}">
       <text>
         <r>
           <rPr>
@@ -4375,7 +4376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD5" authorId="0" shapeId="0">
+    <comment ref="AD5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -4534,7 +4535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE5" authorId="0" shapeId="0">
+    <comment ref="AE5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -4797,7 +4798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="0" shapeId="0">
+    <comment ref="AF5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -4926,7 +4927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0" shapeId="0">
+    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -5085,7 +5086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="0" shapeId="0">
+    <comment ref="AH5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -5353,13 +5354,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KGA_25</author>
     <author>KGA_23</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -5550,7 +5551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -5627,7 +5628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
   <si>
     <t xml:space="preserve">컨셉 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5968,42 +5969,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 2 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지2 전체 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행 방식(미니맵 경로, 전체 FLOW)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stage2 VPS 연출 기획서</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6063,14 +6029,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>목표지점 1 -  타로 카드 공개씬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">목표지점3 버스 정류장 앞 도로  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리소스 위치: RoketTeam &gt; RocketTeamDocu &gt; 04. 리소스 &gt; 에셋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6079,51 +6037,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>멀리서 버스가 정류장을 향해 달려오고 멈춰선다. 하나가 멀리 떠날 거 같은 분위기를 조성하는 용도.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus start 좌표(X,Y)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus end 좌표(X,Y)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표지점 3 - 버스 연출 씬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>핑크색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 종료 UI 출력 시 BUS START 좌표에서 버스가 출현한다 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b. 출현하는 동시에 버스 에셋이 START 좌표 에서 출발해서 END 좌표에서 멈춤. 도로 위에서 시속 40km/h 속도로 전진.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6143,14 +6061,85 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Stage 3에서 이루어질 VPS 연출 기획에 대한 전반적인 내용을 담고 있다. 내용이 방대함으로 스테이지 기획서에서 따로 분리하여 작성함. </t>
+    <t>스테이지3 전체 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 LV3 이상, 스테이지2 클리어 (호감도 LV2-&gt;LV3 필요 EXP 120으로 고정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stage3 VPS 연출 기획서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage3에서 이루어질 VPS 연출 기획에 대한 전반적인 내용을 담고 있다. 내용이 방대함으로 스테이지 기획서에서 따로 분리하여 작성함. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나가 데이트에 나오지 않았다? 대체 어딨는거야? 하나의 의미심장했던 말에 떠오르는 곳으로 발걸음을 옮겨보는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>익숙한 장소에서 떠오른 과거의 기억. 오래 전 즐거웠던 축제에서 만났던 그 소녀는…하나!?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 송파구 풍납동 천호대로 992 3층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공차</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
@@ -6767,7 +6756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6906,22 +6895,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6999,46 +6991,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7063,6 +7019,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7155,6 +7132,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAB259E-55B9-4D53-1D3B-FC5F6FB01198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="914400"/>
+          <a:ext cx="8067675" cy="912984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7164,13 +7185,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>403092</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>173371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>490334</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7226,30 +7247,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>94920</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>157284</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99258</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>140935</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481471</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="그림 50">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9738AA9-6E0F-9806-0B87-1DB3A0D2A54B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152EC60D-F4B8-0896-0203-68D77D006688}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7265,65 +7281,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="933120" y="21550434"/>
-          <a:ext cx="2061738" cy="3965101"/>
+          <a:off x="1685925" y="4324350"/>
+          <a:ext cx="5805946" cy="3987800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>468191</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>446259</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>118696</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="그림 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756C06AE-AE68-99DB-5BD1-5F12462C8F74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="1772" t="2449" r="1090" b="808"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3363791" y="26165175"/>
-          <a:ext cx="5464468" cy="3938221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7331,7 +7294,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7808,7 +7771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -7820,38 +7783,38 @@
   <sheetData>
     <row r="1" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="28"/>
@@ -7968,107 +7931,107 @@
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="28"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71" t="s">
+      <c r="F11" s="71"/>
+      <c r="G11" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="69" t="s">
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="52" t="s">
+      <c r="F12" s="65"/>
+      <c r="G12" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="53"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" s="28"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="79"/>
+      <c r="E13" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="51"/>
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="28"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="54" t="s">
+      <c r="E14" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="55"/>
+      <c r="O14" s="56"/>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="28"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
+      <c r="E15" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
       <c r="N15" s="30" t="s">
         <v>70</v>
       </c>
@@ -8080,23 +8043,23 @@
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="77" t="s">
+      <c r="E16" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="74" t="s">
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="75"/>
+      <c r="O16" s="76"/>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8138,10 +8101,10 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="62" t="s">
+      <c r="I19" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
@@ -8171,7 +8134,7 @@
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -8212,7 +8175,7 @@
         <v>72</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -8249,7 +8212,7 @@
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -8267,7 +8230,7 @@
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
@@ -8285,7 +8248,7 @@
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
@@ -8303,7 +8266,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -8321,10 +8284,10 @@
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -8341,7 +8304,7 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -8359,7 +8322,7 @@
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -8393,7 +8356,7 @@
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -8439,12 +8402,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N14:O14"/>
     <mergeCell ref="C2:P3"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="E12:F12"/>
@@ -8458,6 +8415,12 @@
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G14:M14"/>
     <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8467,12 +8430,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z375"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z376"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8510,22 +8471,22 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
+      <c r="C2" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="13"/>
       <c r="S2" s="23"/>
@@ -8540,20 +8501,20 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
       <c r="Q3" s="42"/>
       <c r="R3" s="13"/>
       <c r="S3" s="23"/>
@@ -8687,9 +8648,15 @@
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
@@ -8775,7 +8742,9 @@
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -8803,7 +8772,9 @@
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -8830,12 +8801,8 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>67</v>
-      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -8844,12 +8811,12 @@
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
@@ -8862,9 +8829,13 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="C14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -8872,12 +8843,12 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
       <c r="U14" s="23"/>
@@ -8891,7 +8862,9 @@
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="36"/>
+      <c r="D15" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="E15" s="36"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -8919,7 +8892,7 @@
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -8943,25 +8916,23 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
@@ -8973,23 +8944,25 @@
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
@@ -9004,13 +8977,9 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -9018,12 +8987,12 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
@@ -9036,9 +9005,11 @@
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
-        <v>73</v>
+      <c r="C20" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -9066,8 +9037,10 @@
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27" t="s">
+        <v>73</v>
+      </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -9076,12 +9049,12 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
       <c r="U21" s="23"/>
@@ -9151,15 +9124,15 @@
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
@@ -9318,7 +9291,7 @@
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -9346,7 +9319,7 @@
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -9682,12 +9655,8 @@
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>77</v>
-      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -9714,8 +9683,12 @@
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
@@ -9742,7 +9715,7 @@
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
-      <c r="C45" s="27"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
@@ -9770,7 +9743,7 @@
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
@@ -10635,33 +10608,33 @@
       <c r="Y76" s="23"/>
       <c r="Z76" s="23"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="23"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="23"/>
-      <c r="W78" s="23"/>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="23"/>
-      <c r="Z78" s="23"/>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
@@ -10831,56 +10804,56 @@
       <c r="Y84" s="23"/>
       <c r="Z84" s="23"/>
     </row>
-    <row r="85" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C85" s="25"/>
-      <c r="D85" s="43" t="s">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="23"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="23"/>
+      <c r="Y85" s="23"/>
+      <c r="Z85" s="23"/>
+    </row>
+    <row r="86" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="25"/>
+      <c r="D86" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D87" s="23" t="s">
+      <c r="E86" s="38"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D88" s="23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A246" s="23"/>
-      <c r="B246" s="23"/>
-      <c r="C246" s="23"/>
-      <c r="D246" s="23"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="23"/>
-      <c r="G246" s="23"/>
-      <c r="H246" s="23"/>
-      <c r="I246" s="23"/>
-      <c r="J246" s="23"/>
-      <c r="K246" s="23"/>
-      <c r="L246" s="23"/>
-      <c r="M246" s="23"/>
-      <c r="N246" s="23"/>
-      <c r="O246" s="23"/>
-      <c r="P246" s="23"/>
-      <c r="Q246" s="23"/>
-      <c r="R246" s="23"/>
-      <c r="S246" s="23"/>
-      <c r="T246" s="23"/>
-      <c r="U246" s="23"/>
-      <c r="V246" s="23"/>
-      <c r="W246" s="23"/>
-      <c r="X246" s="23"/>
-      <c r="Y246" s="23"/>
-      <c r="Z246" s="23"/>
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
@@ -14494,6 +14467,34 @@
       <c r="Y375" s="23"/>
       <c r="Z375" s="23"/>
     </row>
+    <row r="376" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A376" s="23"/>
+      <c r="B376" s="23"/>
+      <c r="C376" s="23"/>
+      <c r="D376" s="23"/>
+      <c r="E376" s="23"/>
+      <c r="F376" s="23"/>
+      <c r="G376" s="23"/>
+      <c r="H376" s="23"/>
+      <c r="I376" s="23"/>
+      <c r="J376" s="23"/>
+      <c r="K376" s="23"/>
+      <c r="L376" s="23"/>
+      <c r="M376" s="23"/>
+      <c r="N376" s="23"/>
+      <c r="O376" s="23"/>
+      <c r="P376" s="23"/>
+      <c r="Q376" s="23"/>
+      <c r="R376" s="23"/>
+      <c r="S376" s="23"/>
+      <c r="T376" s="23"/>
+      <c r="U376" s="23"/>
+      <c r="V376" s="23"/>
+      <c r="W376" s="23"/>
+      <c r="X376" s="23"/>
+      <c r="Y376" s="23"/>
+      <c r="Z376" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:P3"/>
@@ -14506,12 +14507,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:Q48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14519,40 +14518,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
+      <c r="B2" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
@@ -14578,9 +14577,7 @@
       <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>103</v>
-      </c>
+      <c r="C5" s="43"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -14621,7 +14618,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -14682,7 +14679,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -14762,7 +14759,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -14834,7 +14831,6 @@
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
@@ -14853,7 +14849,6 @@
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
@@ -14872,7 +14867,6 @@
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
@@ -14891,7 +14885,6 @@
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
@@ -14910,12 +14903,11 @@
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="36"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -14929,12 +14921,15 @@
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>98</v>
+      </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -14948,12 +14943,13 @@
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
@@ -14967,12 +14963,11 @@
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -14986,25 +14981,26 @@
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="B26" s="44">
+        <v>1</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -15028,8 +15024,12 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>95</v>
+      </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -15085,8 +15085,12 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -15142,8 +15146,12 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -15230,9 +15238,10 @@
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
       <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
@@ -15248,9 +15257,10 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
       <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
@@ -15269,6 +15279,7 @@
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
       <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
@@ -15287,11 +15298,16 @@
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="B42" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>98</v>
+      </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
@@ -15305,6 +15321,7 @@
       <c r="N42" s="27"/>
       <c r="O42" s="27"/>
       <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
@@ -15323,6 +15340,7 @@
       <c r="N43" s="27"/>
       <c r="O43" s="27"/>
       <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="27"/>
@@ -15341,15 +15359,12 @@
       <c r="N44" s="27"/>
       <c r="O44" s="27"/>
       <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
-      <c r="B45" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>101</v>
-      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
@@ -15367,9 +15382,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
-      <c r="C46" s="36" t="s">
-        <v>105</v>
-      </c>
+      <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
@@ -15387,7 +15400,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
-      <c r="C47" s="36"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
@@ -15402,890 +15415,40 @@
       <c r="O47" s="27"/>
       <c r="P47" s="27"/>
     </row>
-    <row r="48" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
-      <c r="B48" s="44">
-        <v>1</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="27"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="81"/>
-      <c r="E60" s="82">
-        <v>37.540616</v>
-      </c>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82">
-        <v>127.126606</v>
-      </c>
-      <c r="H60" s="82"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="81"/>
-      <c r="E61" s="82">
-        <v>37.540447</v>
-      </c>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82">
-        <v>127.12730999999999</v>
-      </c>
-      <c r="H61" s="82"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="P80" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q80" s="27"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="P81" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q81" s="27"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:P3"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16306,50 +15469,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
+      <c r="C3" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
     </row>
     <row r="6" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="14"/>
@@ -16388,7 +15551,7 @@
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.3">
@@ -16404,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
@@ -16542,11 +15705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AH9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B3:AH10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16578,51 +15741,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="88" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="90" t="s">
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="87" t="s">
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="97" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
     </row>
     <row r="4" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -16697,11 +15860,11 @@
       <c r="Y4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="91" t="s">
+      <c r="Z4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="93"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="82"/>
       <c r="AC4" s="3" t="s">
         <v>10</v>
       </c>
@@ -16777,7 +15940,7 @@
         <v>25</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>26</v>
@@ -16794,11 +15957,11 @@
       <c r="Y5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="94" t="s">
+      <c r="Z5" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="96"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="85"/>
       <c r="AC5" s="6" t="s">
         <v>32</v>
       </c>
@@ -16819,14 +15982,28 @@
       </c>
     </row>
     <row r="6" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>37.538777000000003</v>
+      </c>
+      <c r="G6" s="5">
+        <v>127.122383</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
@@ -16853,10 +16030,16 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+    <row r="7" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
       <c r="E7" s="40"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -16878,9 +16061,9 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="96"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="18"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -16889,13 +16072,19 @@
       <c r="AH7" s="5"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="40"/>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -16913,33 +16102,74 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="17"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="96"/>
-      <c r="AC8" s="21"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="6"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="22"/>
+      <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16949,11 +16179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:D37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
